--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/99511865/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/99511865/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9937081336975098</v>
+        <v>0.8072290420532227</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9922824501991272</v>
+        <v>0.7922989130020142</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9928309321403503</v>
+        <v>0.8027971982955933</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9209702014923096</v>
+        <v>0.3944715559482574</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9930688142776489</v>
+        <v>0.8004928827285767</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9935032725334167</v>
+        <v>0.8051953315734863</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9943032264709473</v>
+        <v>0.8142778873443604</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.993524432182312</v>
+        <v>0.8051918745040894</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9943032264709473</v>
+        <v>0.8142778873443604</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9944052696228027</v>
+        <v>0.8159173130989075</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9946779012680054</v>
+        <v>0.8184905052185059</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9798313975334167</v>
+        <v>0.4842196702957153</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9940187931060791</v>
+        <v>0.8108522891998291</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9934675097465515</v>
+        <v>0.8066760301589966</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9929764866828918</v>
+        <v>0.7996077537536621</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9931092262268066</v>
+        <v>0.8008489012718201</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6165403723716736</v>
+        <v>0.2296953648328781</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.993811309337616</v>
+        <v>0.8082476854324341</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9946311712265015</v>
+        <v>0.8181583881378174</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9934501647949219</v>
+        <v>0.8043975234031677</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9940260648727417</v>
+        <v>0.8106523156166077</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9938173890113831</v>
+        <v>0.8087868690490723</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9940617680549622</v>
+        <v>0.8114760518074036</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9328016638755798</v>
+        <v>0.4001067578792572</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5215273499488831</v>
+        <v>0.219554141163826</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9937947988510132</v>
+        <v>0.8081842064857483</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9922824501991272</v>
+        <v>0.7922989130020142</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9935383200645447</v>
+        <v>0.8056980967521667</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9930846691131592</v>
+        <v>0.8005775809288025</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9922732710838318</v>
+        <v>0.7925320863723755</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9935937523841858</v>
+        <v>0.8058798313140869</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9761655926704407</v>
+        <v>0.5310934782028198</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9803938865661621</v>
+        <v>0.4881629645824432</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9767594933509827</v>
+        <v>0.4697866439819336</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9935327768325806</v>
+        <v>0.8056241869926453</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.978377103805542</v>
+        <v>0.4770078063011169</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9943509101867676</v>
+        <v>0.8151089549064636</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9312909841537476</v>
+        <v>0.3674298822879791</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9768570065498352</v>
+        <v>0.5360903143882751</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9943647384643555</v>
+        <v>0.8153029680252075</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.973635733127594</v>
+        <v>0.470876157283783</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9737091064453125</v>
+        <v>0.5236541032791138</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9732398390769958</v>
+        <v>0.4582060277462006</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9783339500427246</v>
+        <v>0.5440605282783508</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9747308492660522</v>
+        <v>0.5269699096679688</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7644328474998474</v>
+        <v>0.3021034598350525</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9737703800201416</v>
+        <v>0.5221077799797058</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9946839213371277</v>
+        <v>0.819016695022583</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9674867987632751</v>
+        <v>0.5015849471092224</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9536398649215698</v>
+        <v>0.4704808592796326</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9922493696212769</v>
+        <v>0.7922625541687012</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9674867987632751</v>
+        <v>0.5015849471092224</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9670352339744568</v>
+        <v>0.5021597743034363</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9934917092323303</v>
+        <v>0.8049684762954712</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9944415688514709</v>
+        <v>0.815798282623291</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9946317672729492</v>
+        <v>0.8183210492134094</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9773170948028564</v>
+        <v>0.4718278646469116</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.99468994140625</v>
+        <v>0.8191921710968018</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9942135214805603</v>
+        <v>0.8131979703903198</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9943519830703735</v>
+        <v>0.8147847056388855</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9941956400871277</v>
+        <v>0.8127253651618958</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9741524457931519</v>
+        <v>0.4611566960811615</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7124277949333191</v>
+        <v>0.3050873875617981</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9772568941116333</v>
+        <v>0.4720499515533447</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9772568941116333</v>
+        <v>0.4720499515533447</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9739786386489868</v>
+        <v>0.460972398519516</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9772568941116333</v>
+        <v>0.4720499515533447</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9347603917121887</v>
+        <v>0.3494585156440735</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9935084581375122</v>
+        <v>0.8052377104759216</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9745761752128601</v>
+        <v>0.4720690250396729</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9908340573310852</v>
+        <v>0.7791509032249451</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9787003397941589</v>
+        <v>0.4781177341938019</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9940688610076904</v>
+        <v>0.8116400241851807</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9930496215820312</v>
+        <v>0.8003029227256775</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9787003397941589</v>
+        <v>0.4781177341938019</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9922448992729187</v>
+        <v>0.7922447919845581</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9787003397941589</v>
+        <v>0.4781177341938019</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9938445091247559</v>
+        <v>0.8090509176254272</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9786471128463745</v>
+        <v>0.4773350656032562</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9922997951507568</v>
+        <v>0.7927880883216858</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9786471128463745</v>
+        <v>0.4773350656032562</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9922837615013123</v>
+        <v>0.7926478385925293</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9922837615013123</v>
+        <v>0.7926478385925293</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9947356581687927</v>
+        <v>0.8194590210914612</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9796090722084045</v>
+        <v>0.4814200103282928</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9937619566917419</v>
+        <v>0.8081295490264893</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9788970351219177</v>
+        <v>0.4775713682174683</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9922577142715454</v>
+        <v>0.7922620177268982</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.994016170501709</v>
+        <v>0.8108553290367126</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9940107464790344</v>
+        <v>0.8106753826141357</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9940184354782104</v>
+        <v>0.8109285235404968</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9940062761306763</v>
+        <v>0.8107150197029114</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9940074682235718</v>
+        <v>0.810664176940918</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9940040707588196</v>
+        <v>0.8106836080551147</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.994595468044281</v>
+        <v>0.8180736899375916</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7637010216712952</v>
+        <v>0.1988431364297867</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9946005344390869</v>
+        <v>0.8178965449333191</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9588587880134583</v>
+        <v>0.4199192821979523</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9935041069984436</v>
+        <v>0.8051499724388123</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9937693476676941</v>
+        <v>0.8080708980560303</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8676524758338928</v>
+        <v>0.3396625518798828</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9718142151832581</v>
+        <v>0.5170196294784546</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9930389523506165</v>
+        <v>0.8001922369003296</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9373645186424255</v>
+        <v>0.3497967123985291</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.993513286113739</v>
+        <v>0.8052241802215576</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9744682908058167</v>
+        <v>0.5268633365631104</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9369063377380371</v>
+        <v>0.3994954228401184</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9938547015190125</v>
+        <v>0.8094249367713928</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9922824501991272</v>
+        <v>0.7922989130020142</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9763059020042419</v>
+        <v>0.5315654277801514</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9739460349082947</v>
+        <v>0.5248605608940125</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9803035855293274</v>
+        <v>0.486891895532608</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9942282438278198</v>
+        <v>0.8134706020355225</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9795779585838318</v>
+        <v>0.482912540435791</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9920965433120728</v>
+        <v>0.7930908799171448</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9929624199867249</v>
+        <v>0.799313485622406</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8570278286933899</v>
+        <v>0.3426023721694946</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9201003313064575</v>
+        <v>0.4065956473350525</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9922824501991272</v>
+        <v>0.7922989130020142</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9357199668884277</v>
+        <v>0.3484081029891968</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9945840239524841</v>
+        <v>0.8178261518478394</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9357199668884277</v>
+        <v>0.3484081029891968</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9945840239524841</v>
+        <v>0.8178261518478394</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9357199668884277</v>
+        <v>0.3484081029891968</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9945595860481262</v>
+        <v>0.8173083662986755</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8330875039100647</v>
+        <v>0.3349917829036713</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9922824501991272</v>
+        <v>0.7922989130020142</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9907172322273254</v>
+        <v>0.7914762496948242</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7490121722221375</v>
+        <v>0.3001849949359894</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9930660724639893</v>
+        <v>0.8003135323524475</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5173868536949158</v>
+        <v>0.2497963458299637</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9929907321929932</v>
+        <v>0.7997856736183167</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9940604567527771</v>
+        <v>0.8119707107543945</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9935212731361389</v>
+        <v>0.8056606650352478</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9906712770462036</v>
+        <v>0.7842974662780762</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9930658340454102</v>
+        <v>0.8006021976470947</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9930400848388672</v>
+        <v>0.8001014590263367</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9930967688560486</v>
+        <v>0.8006505370140076</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.992369532585144</v>
+        <v>0.7933633327484131</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.994111955165863</v>
+        <v>0.8142234683036804</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9922824501991272</v>
+        <v>0.7922989130020142</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9768118262290955</v>
+        <v>0.4703201651573181</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9941844344139099</v>
+        <v>0.8127666115760803</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9768118262290955</v>
+        <v>0.4703201651573181</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9922515749931335</v>
+        <v>0.792091429233551</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9347603917121887</v>
+        <v>0.3494585156440735</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9938045740127563</v>
+        <v>0.8085010051727295</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9776524305343628</v>
+        <v>0.4769076406955719</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8633075952529907</v>
+        <v>0.2854436933994293</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9922824501991272</v>
+        <v>0.7922989130020142</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8294078707695007</v>
+        <v>0.3199281394481659</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9944716691970825</v>
+        <v>0.8165093660354614</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9363022446632385</v>
+        <v>0.3987230062484741</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9940561056137085</v>
+        <v>0.811436653137207</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9366559982299805</v>
+        <v>0.3997489511966705</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9942018389701843</v>
+        <v>0.8131942749023438</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9369081258773804</v>
+        <v>0.3986549079418182</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9942848086357117</v>
+        <v>0.8142384886741638</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9713945984840393</v>
+        <v>0.4505029916763306</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9937858581542969</v>
+        <v>0.8083329200744629</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9933057427406311</v>
+        <v>0.8126966953277588</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9930777549743652</v>
+        <v>0.8005916476249695</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9766393303871155</v>
+        <v>0.4699568748474121</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9945566654205322</v>
+        <v>0.8174172639846802</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9697665572166443</v>
+        <v>0.4504875540733337</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9711158871650696</v>
+        <v>0.5140218138694763</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9801841378211975</v>
+        <v>0.4848330616950989</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9922824501991272</v>
+        <v>0.7922989130020142</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9711158871650696</v>
+        <v>0.5140218138694763</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9791821241378784</v>
+        <v>0.4823392033576965</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9922824501991272</v>
+        <v>0.7922989130020142</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9930607080459595</v>
+        <v>0.8004202842712402</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9930717349052429</v>
+        <v>0.8003146648406982</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9930607080459595</v>
+        <v>0.8004202842712402</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9930607080459595</v>
+        <v>0.8004202842712402</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9930717349052429</v>
+        <v>0.8003146648406982</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9938272833824158</v>
+        <v>0.8087754845619202</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9909231066703796</v>
+        <v>0.7803070545196533</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9930394291877747</v>
+        <v>0.8000874519348145</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9938657879829407</v>
+        <v>0.8091644644737244</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9934811592102051</v>
+        <v>0.8049617409706116</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9373819828033447</v>
+        <v>0.3535711169242859</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9942483901977539</v>
+        <v>0.8138067722320557</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9942556023597717</v>
+        <v>0.8137072920799255</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9943342208862305</v>
+        <v>0.814661979675293</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9943153262138367</v>
+        <v>0.8142839074134827</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9938244819641113</v>
+        <v>0.8084322214126587</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9939708709716797</v>
+        <v>0.8100205659866333</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.99396812915802</v>
+        <v>0.8099762201309204</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7690719366073608</v>
+        <v>0.1859230697154999</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9935492873191833</v>
+        <v>0.8054197430610657</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9930962920188904</v>
+        <v>0.8005010485649109</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9326174855232239</v>
+        <v>0.3424846231937408</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9771270155906677</v>
+        <v>0.5337967872619629</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.994274914264679</v>
+        <v>0.8140783309936523</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9943320751190186</v>
+        <v>0.8146534562110901</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9944479465484619</v>
+        <v>0.8159552216529846</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9937893748283386</v>
+        <v>0.8082346320152283</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9268012642860413</v>
+        <v>0.396382063627243</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9937660694122314</v>
+        <v>0.80803382396698</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.993882417678833</v>
+        <v>0.8096120953559875</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9930965304374695</v>
+        <v>0.8009247779846191</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9713554382324219</v>
+        <v>0.5144887566566467</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9945072531700134</v>
+        <v>0.8167535662651062</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9930094480514526</v>
+        <v>0.7996242642402649</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7747092843055725</v>
+        <v>0.1952612549066544</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9908978343009949</v>
+        <v>0.7796756029129028</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.567793607711792</v>
+        <v>0.2194570302963257</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9930226802825928</v>
+        <v>0.7997876405715942</v>
       </c>
     </row>
   </sheetData>
